--- a/data/Ned_Allocation.xlsx
+++ b/data/Ned_Allocation.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28526"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29426"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://pfizer-my.sharepoint.com/personal/wittej09_pfizer_com/Documents/Documents/Quarto/KarambolageInvesting/Investing2023/data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="3145" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{346A9927-FD26-45E2-9C66-3064E77D32E9}"/>
+  <xr:revisionPtr revIDLastSave="3196" documentId="11_0B82D11B6A48B65002E97C353EDCE6B220F4367A" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{F8A948A2-395D-4FDB-B7A3-66053A407F56}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="allocation" sheetId="7" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="203" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="204" uniqueCount="75">
   <si>
     <t>Johnson&amp;Johnson</t>
   </si>
@@ -56,9 +56,6 @@
     <t>Alibaba</t>
   </si>
   <si>
-    <t>Texas Instruments</t>
-  </si>
-  <si>
     <t>Rexford Realty</t>
   </si>
   <si>
@@ -179,9 +176,6 @@
     <t>Scal</t>
   </si>
   <si>
-    <t>NVIDIA</t>
-  </si>
-  <si>
     <t>Synopsis</t>
   </si>
   <si>
@@ -248,13 +242,25 @@
     <t xml:space="preserve">add Reliance, add </t>
   </si>
   <si>
-    <t>exp_value_2034</t>
-  </si>
-  <si>
-    <t>exp_value_2044</t>
-  </si>
-  <si>
     <t>JP</t>
+  </si>
+  <si>
+    <t>Nvidia</t>
+  </si>
+  <si>
+    <t>goal 2026</t>
+  </si>
+  <si>
+    <t>goal 2045</t>
+  </si>
+  <si>
+    <t>goal 2035</t>
+  </si>
+  <si>
+    <t>exp_value_2035</t>
+  </si>
+  <si>
+    <t>exp_value_2045</t>
   </si>
 </sst>
 </file>
@@ -314,7 +320,7 @@
       <name val="Arial"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -339,8 +345,50 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="3" tint="0.79998168889431442"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="-0.249977111117893"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor rgb="FFEFEFEF"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="5">
+  <borders count="7">
     <border>
       <left/>
       <right/>
@@ -396,11 +444,37 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -432,12 +506,40 @@
     <xf numFmtId="0" fontId="7" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="8" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="9" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="5" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="6" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="16">
     <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -453,7 +555,6 @@
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
       <alignment horizontal="center" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
@@ -648,14 +749,18 @@
     <tableColumn id="5" xr3:uid="{0AD08838-6EAD-4D3D-A036-556D50FDA9A2}" name=" bank" dataDxfId="8"/>
     <tableColumn id="6" xr3:uid="{71E81882-D46D-4679-B3E7-560CDFBBBAB8}" name="percentage" dataDxfId="7"/>
     <tableColumn id="7" xr3:uid="{38190A2C-8EDC-42DB-B013-0496A4199E62}" name="percentage_rn" dataDxfId="6"/>
-    <tableColumn id="8" xr3:uid="{1D2B059B-0983-4B09-897A-85FCF03A2411}" name="money" dataDxfId="5">
-      <calculatedColumnFormula>F2*3000</calculatedColumnFormula>
+    <tableColumn id="8" xr3:uid="{1D2B059B-0983-4B09-897A-85FCF03A2411}" name="money" dataDxfId="0">
+      <calculatedColumnFormula>Table2[[#This Row],[percentage]]*$C$21*0.001</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="9" xr3:uid="{373D9C88-14A7-4B4F-9A71-17DB170CA91D}" name="money_rn" dataDxfId="4"/>
-    <tableColumn id="10" xr3:uid="{FCCD4E85-04B9-4A61-8E67-C367E23A7F74}" name="risk" dataDxfId="3"/>
-    <tableColumn id="11" xr3:uid="{FA7A9436-505F-4C1C-BFCC-E9728001D623}" name="horizont" dataDxfId="2"/>
-    <tableColumn id="12" xr3:uid="{2B338FB5-500B-4578-AFF2-267C9D5A8DBF}" name="exp_value_2034" dataDxfId="1"/>
-    <tableColumn id="13" xr3:uid="{A998207F-B119-43B3-ACAB-DB8FC8A4A071}" name="exp_value_2044" dataDxfId="0"/>
+    <tableColumn id="9" xr3:uid="{373D9C88-14A7-4B4F-9A71-17DB170CA91D}" name="money_rn" dataDxfId="5"/>
+    <tableColumn id="10" xr3:uid="{FCCD4E85-04B9-4A61-8E67-C367E23A7F74}" name="risk" dataDxfId="4"/>
+    <tableColumn id="11" xr3:uid="{FA7A9436-505F-4C1C-BFCC-E9728001D623}" name="horizont" dataDxfId="3"/>
+    <tableColumn id="12" xr3:uid="{2B338FB5-500B-4578-AFF2-267C9D5A8DBF}" name="exp_value_2035" dataDxfId="2">
+      <calculatedColumnFormula>Table2[[#This Row],[percentage]]*$C$22*0.001</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="13" xr3:uid="{A998207F-B119-43B3-ACAB-DB8FC8A4A071}" name="exp_value_2045" dataDxfId="1">
+      <calculatedColumnFormula>Table2[[#This Row],[percentage]]*$C$23*0.001</calculatedColumnFormula>
+    </tableColumn>
     <tableColumn id="14" xr3:uid="{98B877EA-7E4A-41D3-B970-50EA4BA4E422}" name="comment"/>
     <tableColumn id="15" xr3:uid="{EBAB8D89-B329-43CD-B263-FA1B31C9EA59}" name="ideal_add_price"/>
   </tableColumns>
@@ -963,7 +1068,7 @@
   <dimension ref="A1:O59"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D10" sqref="D10"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -974,8 +1079,7 @@
     <col min="4" max="4" width="9.5703125" style="3" customWidth="1"/>
     <col min="5" max="5" width="9.140625" style="3" customWidth="1"/>
     <col min="6" max="6" width="14.7109375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="16.5703125" style="3" customWidth="1"/>
-    <col min="8" max="8" width="11.5703125" style="3" customWidth="1"/>
+    <col min="7" max="8" width="16.5703125" style="3" customWidth="1"/>
     <col min="9" max="9" width="12.42578125" style="3" customWidth="1"/>
     <col min="10" max="10" width="10.28515625" style="3" customWidth="1"/>
     <col min="11" max="11" width="10.85546875" customWidth="1"/>
@@ -987,49 +1091,49 @@
   <sheetData>
     <row r="1" spans="1:15" ht="14.25">
       <c r="A1" s="9" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="B1" s="8" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="F1" s="8" t="s">
         <v>8</v>
       </c>
-      <c r="C1" s="8" t="s">
-        <v>64</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>24</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>44</v>
-      </c>
-      <c r="F1" s="8" t="s">
-        <v>9</v>
-      </c>
       <c r="G1" s="8" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H1" s="8" t="s">
+        <v>11</v>
+      </c>
+      <c r="I1" s="8" t="s">
+        <v>42</v>
+      </c>
+      <c r="J1" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="K1" s="8" t="s">
+        <v>16</v>
+      </c>
+      <c r="L1" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="M1" s="8" t="s">
+        <v>74</v>
+      </c>
+      <c r="N1" s="8" t="s">
         <v>12</v>
       </c>
-      <c r="I1" s="8" t="s">
-        <v>43</v>
-      </c>
-      <c r="J1" s="8" t="s">
-        <v>15</v>
-      </c>
-      <c r="K1" s="8" t="s">
-        <v>17</v>
-      </c>
-      <c r="L1" s="8" t="s">
-        <v>70</v>
-      </c>
-      <c r="M1" s="8" t="s">
-        <v>71</v>
-      </c>
-      <c r="N1" s="8" t="s">
-        <v>13</v>
-      </c>
       <c r="O1" s="8" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="1:15" ht="15">
@@ -1039,37 +1143,39 @@
       <c r="B2" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="6" t="s">
-        <v>56</v>
+      <c r="C2" s="11" t="s">
+        <v>54</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F2" s="5">
         <v>0.04</v>
       </c>
       <c r="G2" s="5"/>
-      <c r="H2" s="3">
-        <f t="shared" ref="H2:H18" si="0">F2*3000</f>
-        <v>120</v>
+      <c r="H2" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I2" s="3">
         <v>10</v>
       </c>
       <c r="J2" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K2" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L2" s="3">
-        <v>50</v>
-      </c>
-      <c r="M2" s="3">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="L2" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M2" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
       </c>
       <c r="N2" s="3"/>
       <c r="O2" s="3">
@@ -1083,37 +1189,39 @@
       <c r="B3" s="6" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="6" t="s">
-        <v>57</v>
+      <c r="C3" s="11" t="s">
+        <v>55</v>
       </c>
       <c r="D3" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F3" s="5">
         <v>0.04</v>
       </c>
       <c r="G3" s="5"/>
-      <c r="H3" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H3" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I3" s="3">
         <v>5</v>
       </c>
       <c r="J3" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K3" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L3" s="3">
-        <v>20</v>
-      </c>
-      <c r="M3" s="3">
-        <v>50</v>
+        <v>17</v>
+      </c>
+      <c r="L3" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M3" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
       </c>
       <c r="N3" s="3"/>
       <c r="O3" s="3"/>
@@ -1125,37 +1233,39 @@
       <c r="B4" s="6" t="s">
         <v>2</v>
       </c>
-      <c r="C4" s="6" t="s">
-        <v>58</v>
+      <c r="C4" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D4" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F4" s="5">
         <v>0.04</v>
       </c>
       <c r="G4" s="5"/>
-      <c r="H4" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H4" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I4" s="3">
         <v>12</v>
       </c>
       <c r="J4" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K4" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L4" s="3">
-        <v>30</v>
-      </c>
-      <c r="M4" s="3">
-        <v>100</v>
+        <v>17</v>
+      </c>
+      <c r="L4" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M4" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
       </c>
       <c r="N4" s="3"/>
       <c r="O4" s="3"/>
@@ -1165,38 +1275,42 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>50</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>58</v>
+        <v>48</v>
+      </c>
+      <c r="C5" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D5" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F5" s="5">
         <v>0.04</v>
       </c>
       <c r="G5" s="5"/>
-      <c r="H5" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H5" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I5" s="3">
         <v>7</v>
       </c>
       <c r="J5" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K5" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L5" s="3">
-        <v>20</v>
-      </c>
-      <c r="M5" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L5" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M5" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N5" s="3"/>
       <c r="O5" s="3"/>
     </row>
@@ -1205,38 +1319,42 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>36</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>58</v>
+        <v>35</v>
+      </c>
+      <c r="C6" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D6" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F6" s="5">
         <v>0.04</v>
       </c>
       <c r="G6" s="5"/>
-      <c r="H6" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H6" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I6" s="3">
         <v>7</v>
       </c>
       <c r="J6" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K6" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L6" s="3">
-        <v>30</v>
-      </c>
-      <c r="M6" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L6" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M6" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N6" s="3"/>
       <c r="O6" s="3"/>
     </row>
@@ -1245,38 +1363,42 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>47</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>59</v>
+        <v>69</v>
+      </c>
+      <c r="C7" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F7" s="5">
         <v>0.04</v>
       </c>
       <c r="G7" s="5"/>
-      <c r="H7" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H7" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I7" s="3">
         <v>50</v>
       </c>
       <c r="J7" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L7" s="3">
-        <v>500</v>
-      </c>
-      <c r="M7" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L7" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M7" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N7" s="3"/>
       <c r="O7" s="3">
         <v>40</v>
@@ -1287,38 +1409,42 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>48</v>
-      </c>
-      <c r="C8" s="6" t="s">
-        <v>59</v>
+        <v>46</v>
+      </c>
+      <c r="C8" s="13" t="s">
+        <v>57</v>
       </c>
       <c r="D8" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F8" s="5">
         <v>0.04</v>
       </c>
       <c r="G8" s="5"/>
-      <c r="H8" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H8" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I8" s="3">
         <v>4</v>
       </c>
       <c r="J8" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K8" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L8" s="3">
-        <v>20</v>
-      </c>
-      <c r="M8" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L8" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M8" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N8" s="3"/>
       <c r="O8" s="3"/>
     </row>
@@ -1326,39 +1452,39 @@
       <c r="A9" s="10">
         <v>8</v>
       </c>
-      <c r="B9" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="6" t="s">
-        <v>60</v>
-      </c>
+      <c r="B9" s="6"/>
+      <c r="C9" s="6"/>
       <c r="D9" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F9" s="5">
         <v>0.04</v>
       </c>
       <c r="G9" s="5"/>
-      <c r="H9" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H9" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I9" s="3">
         <v>8</v>
       </c>
       <c r="J9" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K9" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L9" s="3">
-        <v>10</v>
-      </c>
-      <c r="M9" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L9" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M9" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N9" s="4"/>
       <c r="O9" s="3"/>
     </row>
@@ -1369,36 +1495,40 @@
       <c r="B10" s="6" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="6" t="s">
-        <v>60</v>
+      <c r="C10" s="12" t="s">
+        <v>58</v>
       </c>
       <c r="D10" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F10" s="5">
         <v>0.04</v>
       </c>
       <c r="G10" s="5"/>
-      <c r="H10" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H10" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I10" s="3">
         <v>40</v>
       </c>
       <c r="J10" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K10" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L10" s="3">
-        <v>100</v>
-      </c>
-      <c r="M10" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L10" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M10" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N10" s="3"/>
       <c r="O10" s="3"/>
     </row>
@@ -1407,38 +1537,42 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>49</v>
-      </c>
-      <c r="C11" s="6" t="s">
-        <v>60</v>
+        <v>47</v>
+      </c>
+      <c r="C11" s="14" t="s">
+        <v>58</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F11" s="5">
         <v>0.04</v>
       </c>
       <c r="G11" s="5"/>
-      <c r="H11" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H11" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I11" s="3">
         <v>7</v>
       </c>
       <c r="J11" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K11" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L11" s="3">
-        <v>20</v>
-      </c>
-      <c r="M11" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L11" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M11" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N11" s="3"/>
       <c r="O11" s="3"/>
     </row>
@@ -1447,38 +1581,42 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>53</v>
-      </c>
-      <c r="C12" s="6" t="s">
-        <v>67</v>
+        <v>51</v>
+      </c>
+      <c r="C12" s="15" t="s">
+        <v>65</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F12" s="5">
         <v>0.04</v>
       </c>
       <c r="G12" s="5"/>
-      <c r="H12" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H12" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I12" s="3">
         <v>8</v>
       </c>
       <c r="J12" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K12" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L12" s="3">
-        <v>20</v>
-      </c>
-      <c r="M12" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L12" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M12" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N12" s="4"/>
       <c r="O12" s="3"/>
     </row>
@@ -1487,38 +1625,42 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="C13" s="6" t="s">
-        <v>61</v>
+        <v>6</v>
+      </c>
+      <c r="C13" s="16" t="s">
+        <v>59</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F13" s="5">
         <v>0.04</v>
       </c>
       <c r="G13" s="5"/>
-      <c r="H13" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H13" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I13" s="3">
         <v>16</v>
       </c>
       <c r="J13" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K13" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L13" s="3">
-        <v>20</v>
-      </c>
-      <c r="M13" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L13" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M13" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="N13" s="4"/>
       <c r="O13" s="3"/>
     </row>
@@ -1529,36 +1671,40 @@
       <c r="B14" s="6" t="s">
         <v>4</v>
       </c>
-      <c r="C14" s="6" t="s">
-        <v>68</v>
+      <c r="C14" s="16" t="s">
+        <v>66</v>
       </c>
       <c r="D14" s="3" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F14" s="5">
         <v>0.04</v>
       </c>
       <c r="G14" s="5"/>
-      <c r="H14" s="3">
-        <f t="shared" si="0"/>
+      <c r="H14" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
+      </c>
+      <c r="I14" s="3">
+        <v>15</v>
+      </c>
+      <c r="J14" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="K14" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="L14" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M14" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
         <v>120</v>
       </c>
-      <c r="I14" s="3">
-        <v>15</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>33</v>
-      </c>
-      <c r="K14" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L14" s="3">
-        <v>20</v>
-      </c>
-      <c r="M14" s="3"/>
       <c r="O14" s="3"/>
     </row>
     <row r="15" spans="1:15" ht="15">
@@ -1568,36 +1714,40 @@
       <c r="B15" s="6" t="s">
         <v>5</v>
       </c>
-      <c r="C15" s="6" t="s">
-        <v>58</v>
+      <c r="C15" s="13" t="s">
+        <v>56</v>
       </c>
       <c r="D15" s="3" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F15" s="5">
         <v>0.04</v>
       </c>
       <c r="G15" s="5"/>
-      <c r="H15" s="3">
-        <f t="shared" si="0"/>
-        <v>120</v>
+      <c r="H15" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>20</v>
       </c>
       <c r="I15" s="3">
         <v>2</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K15" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L15" s="3">
-        <v>20</v>
-      </c>
-      <c r="M15" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L15" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>40</v>
+      </c>
+      <c r="M15" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>120</v>
+      </c>
       <c r="O15" s="3"/>
     </row>
     <row r="16" spans="1:15" ht="15">
@@ -1605,54 +1755,58 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="C16" s="6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="F16" s="5">
         <v>0.05</v>
       </c>
       <c r="G16" s="5"/>
-      <c r="H16" s="3">
-        <f t="shared" si="0"/>
-        <v>150</v>
+      <c r="H16" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>25</v>
       </c>
       <c r="I16" s="3">
         <v>5</v>
       </c>
       <c r="J16" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K16" s="3" t="s">
-        <v>18</v>
-      </c>
-      <c r="L16" s="3">
-        <v>10</v>
-      </c>
-      <c r="M16" s="3"/>
+        <v>17</v>
+      </c>
+      <c r="L16" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>50</v>
+      </c>
+      <c r="M16" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>150</v>
+      </c>
     </row>
     <row r="17" spans="1:14" ht="15">
       <c r="A17" s="10">
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C17" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F17" s="5">
         <v>0.28999999999999998</v>
@@ -1660,25 +1814,29 @@
       <c r="G17" s="5">
         <v>0.28000000000000003</v>
       </c>
-      <c r="H17" s="3">
-        <f t="shared" si="0"/>
-        <v>869.99999999999989</v>
+      <c r="H17" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>145</v>
       </c>
       <c r="I17" s="3">
         <v>90</v>
       </c>
       <c r="J17" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K17" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L17" s="3">
-        <v>10</v>
-      </c>
-      <c r="M17" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="L17" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>290</v>
+      </c>
+      <c r="M17" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>869.99999999999989</v>
+      </c>
       <c r="N17" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="18" spans="1:14" ht="15">
@@ -1686,16 +1844,16 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="C18" s="6" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D18" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="F18" s="5">
         <v>0.1</v>
@@ -1703,25 +1861,54 @@
       <c r="G18" s="5">
         <v>0.03</v>
       </c>
-      <c r="H18" s="3">
-        <f t="shared" si="0"/>
-        <v>300</v>
+      <c r="H18" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$21*0.001</f>
+        <v>50</v>
       </c>
       <c r="I18" s="3">
         <v>8</v>
       </c>
       <c r="J18" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K18" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="L18" s="3">
-        <v>30</v>
-      </c>
-      <c r="M18" s="3"/>
+        <v>21</v>
+      </c>
+      <c r="L18" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$22*0.001</f>
+        <v>100</v>
+      </c>
+      <c r="M18" s="17">
+        <f>Table2[[#This Row],[percentage]]*$C$23*0.001</f>
+        <v>300</v>
+      </c>
       <c r="N18" s="3" t="s">
-        <v>69</v>
+        <v>67</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" ht="13.5" thickBot="1"/>
+    <row r="21" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B21" s="18" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="19">
+        <v>500000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B22" s="18" t="s">
+        <v>72</v>
+      </c>
+      <c r="C22" s="19">
+        <v>1000000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" ht="13.5" thickBot="1">
+      <c r="B23" s="18" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" s="19">
+        <v>3000000</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1734,48 +1921,48 @@
     </row>
     <row r="41" spans="2:15">
       <c r="B41" s="3" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="42" spans="2:15" ht="18">
       <c r="B42" s="1" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="C42" s="1"/>
       <c r="D42" s="1" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E42" s="1"/>
       <c r="F42" s="1" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="G42" s="1"/>
       <c r="H42" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="I42" s="1"/>
       <c r="J42" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="K42" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="L42" s="1"/>
       <c r="M42" s="1"/>
       <c r="N42" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="O42" s="1" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="43" spans="2:15" ht="15">
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="7"/>
       <c r="D43" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F43" s="3">
         <v>5</v>
@@ -1784,15 +1971,15 @@
         <v>50</v>
       </c>
       <c r="J43" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K43" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L43" s="3"/>
       <c r="M43" s="3"/>
       <c r="N43" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O43" s="3">
         <v>133</v>
@@ -1804,7 +1991,7 @@
       </c>
       <c r="C44" s="7"/>
       <c r="D44" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F44" s="3">
         <v>5</v>
@@ -1813,25 +2000,25 @@
         <v>50</v>
       </c>
       <c r="J44" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K44" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L44" s="3"/>
       <c r="M44" s="3"/>
       <c r="N44" s="3" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="O44" s="3"/>
     </row>
     <row r="45" spans="2:15" ht="15">
       <c r="B45" s="2" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="C45" s="7"/>
       <c r="D45" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F45" s="3">
         <v>5</v>
@@ -1840,25 +2027,25 @@
         <v>50</v>
       </c>
       <c r="J45" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K45" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L45" s="3"/>
       <c r="M45" s="3"/>
       <c r="N45" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O45" s="3"/>
     </row>
     <row r="46" spans="2:15" ht="15">
       <c r="B46" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C46" s="7"/>
       <c r="D46" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F46" s="3">
         <v>5</v>
@@ -1867,25 +2054,25 @@
         <v>50</v>
       </c>
       <c r="J46" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K46" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L46" s="3"/>
       <c r="M46" s="3"/>
       <c r="N46" s="3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="O46" s="3"/>
     </row>
     <row r="47" spans="2:15" ht="15">
       <c r="B47" s="2" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C47" s="7"/>
       <c r="D47" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F47" s="3">
         <v>5</v>
@@ -1894,25 +2081,25 @@
         <v>50</v>
       </c>
       <c r="J47" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K47" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L47" s="3"/>
       <c r="M47" s="3"/>
       <c r="N47" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O47" s="3"/>
     </row>
     <row r="48" spans="2:15" ht="15">
       <c r="B48" s="2" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="C48" s="7"/>
       <c r="D48" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F48" s="3">
         <v>5</v>
@@ -1921,15 +2108,15 @@
         <v>50</v>
       </c>
       <c r="J48" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K48" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L48" s="3"/>
       <c r="M48" s="3"/>
       <c r="N48" s="3" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="O48" s="3">
         <v>40</v>
@@ -1937,11 +2124,11 @@
     </row>
     <row r="49" spans="2:15" ht="15">
       <c r="B49" s="2" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="C49" s="7"/>
       <c r="D49" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F49" s="3">
         <v>5</v>
@@ -1950,15 +2137,15 @@
         <v>50</v>
       </c>
       <c r="J49" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K49" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L49" s="3"/>
       <c r="M49" s="3"/>
       <c r="N49" s="3" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="O49" s="3"/>
     </row>
@@ -1966,7 +2153,7 @@
       <c r="B50" s="2"/>
       <c r="C50" s="7"/>
       <c r="D50" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F50" s="3">
         <v>5</v>
@@ -1975,10 +2162,10 @@
         <v>50</v>
       </c>
       <c r="J50" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K50" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L50" s="3"/>
       <c r="M50" s="3"/>
@@ -1989,7 +2176,7 @@
       <c r="B51" s="2"/>
       <c r="C51" s="7"/>
       <c r="D51" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F51" s="3">
         <v>5</v>
@@ -1998,15 +2185,15 @@
         <v>50</v>
       </c>
       <c r="J51" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K51" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L51" s="3"/>
       <c r="M51" s="3"/>
       <c r="N51" s="3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O51" s="3">
         <v>170</v>
@@ -2016,7 +2203,7 @@
       <c r="B52" s="2"/>
       <c r="C52" s="7"/>
       <c r="D52" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F52" s="3">
         <v>5</v>
@@ -2025,15 +2212,15 @@
         <v>50</v>
       </c>
       <c r="J52" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K52" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L52" s="3"/>
       <c r="M52" s="3"/>
       <c r="N52" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O52" s="3">
         <v>65</v>
@@ -2043,7 +2230,7 @@
       <c r="B53" s="2"/>
       <c r="C53" s="7"/>
       <c r="D53" s="3" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="F53" s="3">
         <v>5</v>
@@ -2052,15 +2239,15 @@
         <v>50</v>
       </c>
       <c r="J53" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K53" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L53" s="3"/>
       <c r="M53" s="3"/>
       <c r="N53" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="O53" s="3"/>
     </row>
@@ -2068,7 +2255,7 @@
       <c r="B54" s="2"/>
       <c r="C54" s="7"/>
       <c r="D54" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F54" s="3">
         <v>5</v>
@@ -2077,15 +2264,15 @@
         <v>50</v>
       </c>
       <c r="J54" s="3" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="K54" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L54" s="3"/>
       <c r="M54" s="3"/>
       <c r="N54" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O54" s="3"/>
     </row>
@@ -2093,7 +2280,7 @@
       <c r="B55" s="2"/>
       <c r="C55" s="7"/>
       <c r="D55" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F55" s="3">
         <v>5</v>
@@ -2102,15 +2289,15 @@
         <v>50</v>
       </c>
       <c r="J55" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K55" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L55" s="3"/>
       <c r="M55" s="3"/>
       <c r="N55" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="O55" s="3">
         <v>56</v>
@@ -2120,7 +2307,7 @@
       <c r="B56" s="2"/>
       <c r="C56" s="7"/>
       <c r="D56" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F56" s="3">
         <v>5</v>
@@ -2129,15 +2316,15 @@
         <v>50</v>
       </c>
       <c r="J56" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K56" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L56" s="3"/>
       <c r="M56" s="3"/>
       <c r="N56" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="O56" s="3">
         <v>140</v>
@@ -2147,7 +2334,7 @@
       <c r="B57" s="2"/>
       <c r="C57" s="7"/>
       <c r="D57" s="3" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="F57" s="3">
         <v>5</v>
@@ -2156,25 +2343,25 @@
         <v>50</v>
       </c>
       <c r="J57" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K57" s="3" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="L57" s="3"/>
       <c r="M57" s="3"/>
       <c r="N57" s="3" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="O57" s="3"/>
     </row>
     <row r="58" spans="2:15" ht="15">
       <c r="B58" s="2" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C58" s="7"/>
       <c r="D58" s="3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="F58" s="3">
         <v>10</v>
@@ -2183,15 +2370,15 @@
         <v>100</v>
       </c>
       <c r="J58" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K58" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L58" s="3"/>
       <c r="M58" s="3"/>
       <c r="N58" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="O58" s="3"/>
     </row>
@@ -2199,7 +2386,7 @@
       <c r="B59" s="2"/>
       <c r="C59" s="7"/>
       <c r="D59" s="3" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="F59" s="3">
         <v>15</v>
@@ -2208,15 +2395,15 @@
         <v>150</v>
       </c>
       <c r="J59" s="3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="K59" s="3" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="L59" s="3"/>
       <c r="M59" s="3"/>
       <c r="N59" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="O59" s="3">
         <v>14</v>
